--- a/Damnhard_overview_mean_results.xlsx
+++ b/Damnhard_overview_mean_results.xlsx
@@ -8,16 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Documents\AI Master Leerjaar 1\Periode 4\Knowledge Representation\KR-master\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07132A0E-4844-4A8E-B5E8-5E07619CD5D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414201E7-B0B7-42D0-9B0F-45BF6E16D549}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{93DD1CA0-C9AA-406E-9598-3EEF381C6F1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{93DD1CA0-C9AA-406E-9598-3EEF381C6F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad2!$C$2:$C$36</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad2!$C$2:$C$36</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Blad2!$G$2:$G$36</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Blad2!$H$2:$H$36</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Blad2!$H$2:$H$36</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Blad2!$I$2:$I$36</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad2!$E$2:$E$36</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad2!$C$2:$C$36</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad2!$D$2:$D$36</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad2!$E$2:$E$36</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad2!$F$2:$F$36</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad2!$F$2:$F$36</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Blad2!$G$2:$G$36</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Blad2!$C$2:$C$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Runtime</t>
   </si>
@@ -106,6 +123,27 @@
   <si>
     <t>8_ Our min len probabilistic JW two sided</t>
   </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>h6</t>
+  </si>
+  <si>
+    <t>h7</t>
+  </si>
+  <si>
+    <t>h8</t>
+  </si>
+  <si>
+    <t>backtracks h1</t>
+  </si>
 </sst>
 </file>
 
@@ -159,12 +197,5073 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Box plot of mean backtracks for the random heuristic for damnhard Sudokus</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Box plot of mean backtracks for the random heuristic for damnhard Sudokus</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{E47A3CC6-C3B7-4519-B648-88BC03B531E2}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="600"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amount of backtracks</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Amount of backtracks</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Box plot of backtracks for the JW1 heuristic for damnhard Sudokus</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Box plot of backtracks for the JW1 heuristic for damnhard Sudokus</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{A1616508-E6DB-4A2A-9B5D-71FCE8397A09}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="90000"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amount of backtracks</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Amount of backtracks</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Box plot of mean backtracks for the JW2 heuristic for damnhard Sudokus</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Box plot of mean backtracks for the JW2 heuristic for damnhard Sudokus</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{4C3C12B5-EEB9-4529-A99F-7D9452ED87E5}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amount of backtracks</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Amount of backtracks</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Box plot of mean backtracks for the MCML1 heuristic for damnhard Sudokus</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Box plot of mean backtracks for the MCML1 heuristic for damnhard Sudokus</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{98D81B96-2CA7-4C8D-A994-C6F81332E497}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amount of backtracks</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Amount of backtracks</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Box plot of mean backtracks for the MCML2 heuristic for damnhard Sudokus</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Box plot of mean backtracks for the MCML2 heuristic for damnhard Sudokus</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{DC72D9AB-A188-48B0-8C5C-B44F35C5BA1E}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amount of backtracks</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Amount of backtracks</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Box plot of mean backtracks for the PMCML1 heuristic for damnhard Sudokus</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Box plot of mean backtracks for the PMCML1 heuristic for damnhard Sudokus</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{64F9C03D-3FE8-443A-8802-8B15E3A6EF72}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amount of backtracks</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Amount of backtracks</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Box plot of mean backtracks for the PMCML2 heuristic for damnhard Sudokus</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Box plot of mean backtracks for the PMCML2 heuristic for damnhard Sudokus</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{1F5945A2-1CC5-4F4B-B0F9-A8E5C4FEA6AB}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amount of backtracks</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Amount of backtracks</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76198</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="13" name="Grafiek 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3921D507-8A8D-4AED-AE70-2DC213382D54}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6172198" y="121024"/>
+              <a:ext cx="5347449" cy="3607013"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>564776</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="14" name="Grafiek 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61423E46-E5C5-422C-915E-9B293E3CD30F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6051176" y="3756211"/>
+              <a:ext cx="5459506" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>524433</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>94130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>385482</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="15" name="Grafiek 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9BC22C1-C994-4BED-AF08-AC48F2675FDD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12106833" y="94130"/>
+              <a:ext cx="5347449" cy="3491752"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>421341</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>282390</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="16" name="Grafiek 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF1179B-CA9D-4318-888D-92A42004F77D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12003741" y="3702424"/>
+              <a:ext cx="5347449" cy="3491752"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>470649</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="18" name="Grafiek 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFAF5E5-5D06-4A93-A26B-D8AB854A1AB1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6096000" y="6840071"/>
+              <a:ext cx="5347449" cy="3491752"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>302623</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>163672</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93872</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="19" name="Grafiek 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F44306-FB49-4C0C-835F-1F9596587D17}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17981023" y="191588"/>
+              <a:ext cx="5347449" cy="3603427"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>157779</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>174811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>18828</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>80680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="20" name="Grafiek 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB76E22-B069-45C9-8BCD-1EFF1FD8705C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17836179" y="4015291"/>
+              <a:ext cx="5347449" cy="3563469"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Results_damnhard_3_h1"/>
-      <sheetName val="Mean per puzzle"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -180,7 +5279,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -485,7 +5583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727EDD6C-B436-4D23-AAA4-518CF9267304}">
   <dimension ref="A5:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -872,4 +5970,849 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A383E4C-4F0B-46BE-99B4-BD40993E99AA}">
+  <dimension ref="C1:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO19" sqref="AO19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>82.333333330000002</v>
+      </c>
+      <c r="D2">
+        <v>18854.666669999999</v>
+      </c>
+      <c r="E2">
+        <v>12653.333329999999</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>16.666666670000001</v>
+      </c>
+      <c r="H2">
+        <v>30.666666670000001</v>
+      </c>
+      <c r="I2">
+        <v>39.333333330000002</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>2527.333333</v>
+      </c>
+      <c r="E3">
+        <v>2446</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3.3333333330000001</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>44069.666669999999</v>
+      </c>
+      <c r="E4">
+        <v>36863.666669999999</v>
+      </c>
+      <c r="F4">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="G4">
+        <v>1.3333333329999999</v>
+      </c>
+      <c r="H4">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="I4">
+        <v>1.6666666670000001</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>126.66666669999999</v>
+      </c>
+      <c r="D5">
+        <v>51558.666669999999</v>
+      </c>
+      <c r="E5">
+        <v>8673.6666669999995</v>
+      </c>
+      <c r="F5">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="G5">
+        <v>1.3333333329999999</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2.6666666669999999</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>36.666666669999998</v>
+      </c>
+      <c r="D6">
+        <v>20586.333330000001</v>
+      </c>
+      <c r="E6">
+        <v>19899</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="I6">
+        <v>1.3333333329999999</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>5.6666666670000003</v>
+      </c>
+      <c r="D7">
+        <v>12496</v>
+      </c>
+      <c r="E7">
+        <v>7013.6666670000004</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>12.33333333</v>
+      </c>
+      <c r="H7">
+        <v>7.6666666670000003</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>140.33333329999999</v>
+      </c>
+      <c r="D8">
+        <v>4977.3333329999996</v>
+      </c>
+      <c r="E8">
+        <v>5675.6666670000004</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>0.66666666699999999</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>211.66666670000001</v>
+      </c>
+      <c r="D9">
+        <v>88541</v>
+      </c>
+      <c r="E9">
+        <v>55845</v>
+      </c>
+      <c r="F9">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="G9">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="H9">
+        <v>2.3333333330000001</v>
+      </c>
+      <c r="I9">
+        <v>1.6666666670000001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>81.333333330000002</v>
+      </c>
+      <c r="D10">
+        <v>25277.666669999999</v>
+      </c>
+      <c r="E10">
+        <v>3078.666667</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>5.6666666670000003</v>
+      </c>
+      <c r="H10">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="I10">
+        <v>9.6666666669999994</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>31101.666669999999</v>
+      </c>
+      <c r="E11">
+        <v>22753</v>
+      </c>
+      <c r="F11">
+        <v>2.6666666669999999</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0.66666666699999999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>201.33333329999999</v>
+      </c>
+      <c r="D12">
+        <v>7770.6666670000004</v>
+      </c>
+      <c r="E12">
+        <v>5223.6666670000004</v>
+      </c>
+      <c r="F12">
+        <v>2.3333333330000001</v>
+      </c>
+      <c r="G12">
+        <v>2.3333333330000001</v>
+      </c>
+      <c r="H12">
+        <v>4.6666666670000003</v>
+      </c>
+      <c r="I12">
+        <v>3.3333333330000001</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>149</v>
+      </c>
+      <c r="D13">
+        <v>23345</v>
+      </c>
+      <c r="E13">
+        <v>18958.666669999999</v>
+      </c>
+      <c r="F13">
+        <v>6.6666666670000003</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>6.6666666670000003</v>
+      </c>
+      <c r="I13">
+        <v>2.6666666669999999</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>90.333333330000002</v>
+      </c>
+      <c r="D14">
+        <v>23299.666669999999</v>
+      </c>
+      <c r="E14">
+        <v>33242</v>
+      </c>
+      <c r="F14">
+        <v>68.666666669999998</v>
+      </c>
+      <c r="G14">
+        <v>82.666666669999998</v>
+      </c>
+      <c r="H14">
+        <v>38</v>
+      </c>
+      <c r="I14">
+        <v>139.66666670000001</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>182</v>
+      </c>
+      <c r="D15">
+        <v>57851.333330000001</v>
+      </c>
+      <c r="E15">
+        <v>49017.666669999999</v>
+      </c>
+      <c r="F15">
+        <v>5.6666666670000003</v>
+      </c>
+      <c r="G15">
+        <v>8.3333333330000006</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>284</v>
+      </c>
+      <c r="D16">
+        <v>41508</v>
+      </c>
+      <c r="E16">
+        <v>67502.666670000006</v>
+      </c>
+      <c r="F16">
+        <v>29.333333329999999</v>
+      </c>
+      <c r="G16">
+        <v>13.33333333</v>
+      </c>
+      <c r="H16">
+        <v>14.66666667</v>
+      </c>
+      <c r="I16">
+        <v>11.33333333</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>8.3333333330000006</v>
+      </c>
+      <c r="D17">
+        <v>192.33333329999999</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>10.66666667</v>
+      </c>
+      <c r="H17">
+        <v>6.3333333329999997</v>
+      </c>
+      <c r="I17">
+        <v>3.6666666669999999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>11.66666667</v>
+      </c>
+      <c r="D18">
+        <v>71</v>
+      </c>
+      <c r="E18">
+        <v>155.33333329999999</v>
+      </c>
+      <c r="F18">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="G18">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="H18">
+        <v>3.3333333330000001</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>10.33333333</v>
+      </c>
+      <c r="D19">
+        <v>606</v>
+      </c>
+      <c r="E19">
+        <v>561.33333330000005</v>
+      </c>
+      <c r="F19">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="G19">
+        <v>2.3333333330000001</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>1.6666666670000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>304.66666670000001</v>
+      </c>
+      <c r="D20">
+        <v>45202.333330000001</v>
+      </c>
+      <c r="E20">
+        <v>32485.333330000001</v>
+      </c>
+      <c r="F20">
+        <v>21.666666670000001</v>
+      </c>
+      <c r="G20">
+        <v>7.3333333329999997</v>
+      </c>
+      <c r="H20">
+        <v>22</v>
+      </c>
+      <c r="I20">
+        <v>1.6666666670000001</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>581</v>
+      </c>
+      <c r="D21">
+        <v>52999</v>
+      </c>
+      <c r="E21">
+        <v>63992.666669999999</v>
+      </c>
+      <c r="F21">
+        <v>23.666666670000001</v>
+      </c>
+      <c r="G21">
+        <v>27.333333329999999</v>
+      </c>
+      <c r="H21">
+        <v>71.333333330000002</v>
+      </c>
+      <c r="I21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>244.33333329999999</v>
+      </c>
+      <c r="D22">
+        <v>18954.666669999999</v>
+      </c>
+      <c r="E22">
+        <v>12104</v>
+      </c>
+      <c r="F22">
+        <v>3.3333333330000001</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>79</v>
+      </c>
+      <c r="D23">
+        <v>5923.3333329999996</v>
+      </c>
+      <c r="E23">
+        <v>3887.666667</v>
+      </c>
+      <c r="F23">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>3.3333333330000001</v>
+      </c>
+      <c r="I23">
+        <v>1.6666666670000001</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>93.666666669999998</v>
+      </c>
+      <c r="D24">
+        <v>31020.333330000001</v>
+      </c>
+      <c r="E24">
+        <v>24908.666669999999</v>
+      </c>
+      <c r="F24">
+        <v>11.66666667</v>
+      </c>
+      <c r="G24">
+        <v>12.33333333</v>
+      </c>
+      <c r="H24">
+        <v>6.6666666670000003</v>
+      </c>
+      <c r="I24">
+        <v>7.3333333329999997</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>177</v>
+      </c>
+      <c r="D25">
+        <v>7990</v>
+      </c>
+      <c r="E25">
+        <v>7407.3333329999996</v>
+      </c>
+      <c r="F25">
+        <v>4.6666666670000003</v>
+      </c>
+      <c r="G25">
+        <v>4.3333333329999997</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>4.3333333329999997</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>26.666666670000001</v>
+      </c>
+      <c r="D26">
+        <v>10945.666670000001</v>
+      </c>
+      <c r="E26">
+        <v>9676</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>11.33333333</v>
+      </c>
+      <c r="H26">
+        <v>12.33333333</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>127</v>
+      </c>
+      <c r="D28">
+        <v>9805.3333330000005</v>
+      </c>
+      <c r="E28">
+        <v>6763</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>11.33333333</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>2555.333333</v>
+      </c>
+      <c r="E30">
+        <v>2246</v>
+      </c>
+      <c r="F30">
+        <v>2.6666666669999999</v>
+      </c>
+      <c r="G30">
+        <v>2.3333333330000001</v>
+      </c>
+      <c r="H30">
+        <v>2.6666666669999999</v>
+      </c>
+      <c r="I30">
+        <v>1.3333333329999999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>140</v>
+      </c>
+      <c r="D31">
+        <v>16614.333330000001</v>
+      </c>
+      <c r="E31">
+        <v>11901.333329999999</v>
+      </c>
+      <c r="F31">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>3.6666666669999999</v>
+      </c>
+      <c r="I31">
+        <v>2.3333333330000001</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="D32">
+        <v>58.333333330000002</v>
+      </c>
+      <c r="E32">
+        <v>42.666666669999998</v>
+      </c>
+      <c r="F32">
+        <v>4.6666666670000003</v>
+      </c>
+      <c r="G32">
+        <v>3.3333333330000001</v>
+      </c>
+      <c r="H32">
+        <v>2.6666666669999999</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>42</v>
+      </c>
+      <c r="D33">
+        <v>7881</v>
+      </c>
+      <c r="E33">
+        <v>7058.3333329999996</v>
+      </c>
+      <c r="F33">
+        <v>8.3333333330000006</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>10.33333333</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>86</v>
+      </c>
+      <c r="D34">
+        <v>3325.666667</v>
+      </c>
+      <c r="E34">
+        <v>3006</v>
+      </c>
+      <c r="F34">
+        <v>6.3333333329999997</v>
+      </c>
+      <c r="G34">
+        <v>10.33333333</v>
+      </c>
+      <c r="H34">
+        <v>9.6666666669999994</v>
+      </c>
+      <c r="I34">
+        <v>9.6666666669999994</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>152.66666670000001</v>
+      </c>
+      <c r="D35">
+        <v>8360.3333330000005</v>
+      </c>
+      <c r="E35">
+        <v>5821.3333329999996</v>
+      </c>
+      <c r="F35">
+        <v>5.6666666670000003</v>
+      </c>
+      <c r="G35">
+        <v>5.6666666670000003</v>
+      </c>
+      <c r="H35">
+        <v>10.66666667</v>
+      </c>
+      <c r="I35">
+        <v>3.6666666669999999</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>10654.666670000001</v>
+      </c>
+      <c r="E36">
+        <v>7420</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>10.66666667</v>
+      </c>
+      <c r="I36">
+        <v>5.6666666670000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Damnhard_overview_mean_results.xlsx
+++ b/Damnhard_overview_mean_results.xlsx
@@ -8,32 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Documents\AI Master Leerjaar 1\Periode 4\Knowledge Representation\KR-master\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414201E7-B0B7-42D0-9B0F-45BF6E16D549}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14039C2-B1BD-4F83-8C93-2D79D92CF4A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{93DD1CA0-C9AA-406E-9598-3EEF381C6F1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{93DD1CA0-C9AA-406E-9598-3EEF381C6F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="Blad4" sheetId="4" r:id="rId2"/>
+    <sheet name="Blad5" sheetId="5" r:id="rId3"/>
+    <sheet name="Blad3" sheetId="3" r:id="rId4"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Blad2!$C$2:$C$36</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Blad2!$C$2:$C$36</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Blad2!$G$2:$G$36</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Blad2!$H$2:$H$36</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad2!$E$2:$E$36</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Blad2!$C$2:$C$36</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Blad2!$G$2:$G$36</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Blad2!$H$2:$H$36</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Blad2!$I$2:$I$36</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad2!$E$2:$E$36</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad2!$C$2:$C$36</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Blad2!$D$2:$D$36</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Blad2!$E$2:$E$36</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Blad2!$F$2:$F$36</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Blad2!$F$2:$F$36</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Blad2!$G$2:$G$36</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Blad2!$C$2:$C$36</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Blad2!$H$2:$H$36</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Blad2!$I$2:$I$36</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad2!$C$2:$C$36</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad2!$D$2:$D$36</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad2!$E$2:$E$36</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad2!$F$2:$F$36</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad2!$C$2:$C$36</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad2!$D$2:$D$36</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Blad2!$F$2:$F$36</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Blad2!$G$2:$G$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
   <si>
     <t>Runtime</t>
   </si>
@@ -143,13 +147,199 @@
   </si>
   <si>
     <t>backtracks h1</t>
+  </si>
+  <si>
+    <t>Unifactoriële variantie-analyse</t>
+  </si>
+  <si>
+    <t>SAMENVATTING</t>
+  </si>
+  <si>
+    <t>Groepen</t>
+  </si>
+  <si>
+    <t>Aantal</t>
+  </si>
+  <si>
+    <t>Som</t>
+  </si>
+  <si>
+    <t>Gemiddelde</t>
+  </si>
+  <si>
+    <t>Variantie</t>
+  </si>
+  <si>
+    <t>Kolom 1</t>
+  </si>
+  <si>
+    <t>Kolom 2</t>
+  </si>
+  <si>
+    <t>Kolom 3</t>
+  </si>
+  <si>
+    <t>Kolom 4</t>
+  </si>
+  <si>
+    <t>Kolom 5</t>
+  </si>
+  <si>
+    <t>Kolom 6</t>
+  </si>
+  <si>
+    <t>Kolom 7</t>
+  </si>
+  <si>
+    <t>Variantie-analyse</t>
+  </si>
+  <si>
+    <t>Bron van variatie</t>
+  </si>
+  <si>
+    <t>Kwadratensom</t>
+  </si>
+  <si>
+    <t>Vrijheidsgraden</t>
+  </si>
+  <si>
+    <t>Gemiddelde kwadraten</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-waarde</t>
+  </si>
+  <si>
+    <t>Kritische gebied van F-toets</t>
+  </si>
+  <si>
+    <t>Tussen groepen</t>
+  </si>
+  <si>
+    <t>Binnen groepen</t>
+  </si>
+  <si>
+    <t>Totaal</t>
+  </si>
+  <si>
+    <t>F &gt; F crit toet, thus we reject null hypothesis. The means of the populations are not equal. At least one is different.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 2 </t>
+  </si>
+  <si>
+    <t>1 4</t>
+  </si>
+  <si>
+    <t>1 5</t>
+  </si>
+  <si>
+    <t>1 6</t>
+  </si>
+  <si>
+    <t>1 7</t>
+  </si>
+  <si>
+    <t>1 8</t>
+  </si>
+  <si>
+    <t>2 4</t>
+  </si>
+  <si>
+    <t>2 5</t>
+  </si>
+  <si>
+    <t>2 7</t>
+  </si>
+  <si>
+    <t>2 8</t>
+  </si>
+  <si>
+    <t>4 5</t>
+  </si>
+  <si>
+    <t>4 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 7 </t>
+  </si>
+  <si>
+    <t>4 8</t>
+  </si>
+  <si>
+    <t>5 6</t>
+  </si>
+  <si>
+    <t>5 7</t>
+  </si>
+  <si>
+    <t>5 8</t>
+  </si>
+  <si>
+    <t>6 7</t>
+  </si>
+  <si>
+    <t>6 8</t>
+  </si>
+  <si>
+    <t>7 8</t>
+  </si>
+  <si>
+    <t>T-toets: twee steekproeven met ongelijke varianties</t>
+  </si>
+  <si>
+    <t>Variabele 1</t>
+  </si>
+  <si>
+    <t>Variabele 2</t>
+  </si>
+  <si>
+    <t>Waarnemingen</t>
+  </si>
+  <si>
+    <t>Schatting van verschil tussen gemiddelden</t>
+  </si>
+  <si>
+    <t>T- statistische gegevens</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) eenzijdig</t>
+  </si>
+  <si>
+    <t>Kritiek gebied van T-toets: eenzijdig</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) tweezijdig</t>
+  </si>
+  <si>
+    <t>Kritiek gebied van T-toets: tweezijdig</t>
+  </si>
+  <si>
+    <t>T-stat</t>
+  </si>
+  <si>
+    <t>Reject null hypothese of equal</t>
+  </si>
+  <si>
+    <t>Plus minus T-critical two tail value</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 6 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,16 +347,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,12 +378,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -202,7 +432,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -284,6 +514,11 @@
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
 </cx:chartSpace>
 </file>
 
@@ -292,7 +527,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -382,7 +617,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -472,7 +707,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -561,7 +796,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -650,7 +885,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -739,7 +974,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4758,7 +4993,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6172198" y="121024"/>
-              <a:ext cx="5347449" cy="3607013"/>
+              <a:ext cx="5347449" cy="3631203"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5024,16 +5259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>26895</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>157523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>470649</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>525078</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57629</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -5069,8 +5304,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6096000" y="6840071"/>
-              <a:ext cx="5347449" cy="3491752"/>
+              <a:off x="14075229" y="8114980"/>
+              <a:ext cx="5347449" cy="3601249"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5584,7 +5819,7 @@
   <dimension ref="A5:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5973,11 +6208,1689 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C2B7AA-4433-4185-9D15-8F35A9753BE0}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1">
+        <v>109.83809523905713</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19626.419047960851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13822.629878792928</v>
+      </c>
+      <c r="C5" s="1">
+        <v>434618142.34682196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-5.5383057492422951</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.7151936401026044E-6</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.6909242551868542</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.4303872802052088E-6</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.0322445093177191</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B283E612-3D54-487C-9AD8-71BB2C64F206}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1">
+        <v>109.83809523905713</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15667.809524122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13822.629878792928</v>
+      </c>
+      <c r="C5" s="1">
+        <v>353065811.60071403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-4.8983595237757189</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.1628320076399273E-5</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.6909242551868542</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.3256640152798546E-5</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.0322445093177191</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F2A439-5CCE-4474-917C-64730F0AA4D9}">
+  <dimension ref="A1:Y54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5:Y5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3">
+        <v>82.333333330000002</v>
+      </c>
+      <c r="K3">
+        <v>18854.666669999999</v>
+      </c>
+      <c r="L3">
+        <v>12653.333329999999</v>
+      </c>
+      <c r="M3">
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <v>16.666666670000001</v>
+      </c>
+      <c r="O3">
+        <v>30.666666670000001</v>
+      </c>
+      <c r="P3">
+        <v>39.333333330000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>2527.333333</v>
+      </c>
+      <c r="L4">
+        <v>2446</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>3.3333333330000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3844.3333333669993</v>
+      </c>
+      <c r="D5" s="1">
+        <v>109.83809523905713</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13822.629878792928</v>
+      </c>
+      <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>44069.666669999999</v>
+      </c>
+      <c r="L5">
+        <v>36863.666669999999</v>
+      </c>
+      <c r="M5">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="N5">
+        <v>1.3333333329999999</v>
+      </c>
+      <c r="O5">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="P5">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="S5" t="s">
+        <v>87</v>
+      </c>
+      <c r="U5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>686924.66667862982</v>
+      </c>
+      <c r="D6" s="1">
+        <v>19626.419047960851</v>
+      </c>
+      <c r="E6" s="1">
+        <v>434618142.34682196</v>
+      </c>
+      <c r="J6">
+        <v>126.66666669999999</v>
+      </c>
+      <c r="K6">
+        <v>51558.666669999999</v>
+      </c>
+      <c r="L6">
+        <v>8673.6666669999995</v>
+      </c>
+      <c r="M6">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="N6">
+        <v>1.3333333329999999</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2.6666666669999999</v>
+      </c>
+      <c r="R6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-5.5383057492422951</v>
+      </c>
+      <c r="U6" s="2">
+        <v>2.0322445093177199</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>548373.33334427001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15667.809524122</v>
+      </c>
+      <c r="E7" s="1">
+        <v>353065811.60071403</v>
+      </c>
+      <c r="J7">
+        <v>36.666666669999998</v>
+      </c>
+      <c r="K7">
+        <v>20586.333330000001</v>
+      </c>
+      <c r="L7">
+        <v>19899</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="P7">
+        <v>1.3333333329999999</v>
+      </c>
+      <c r="R7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-4.8983595237757189</v>
+      </c>
+      <c r="U7" s="2">
+        <v>2.0322445093177191</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>281.66666667999993</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8.0476190479999978</v>
+      </c>
+      <c r="E8" s="1">
+        <v>165.13165267411193</v>
+      </c>
+      <c r="J8">
+        <v>5.6666666670000003</v>
+      </c>
+      <c r="K8">
+        <v>12496</v>
+      </c>
+      <c r="L8">
+        <v>7013.6666670000004</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>12.33333333</v>
+      </c>
+      <c r="O8">
+        <v>7.6666666670000003</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="R8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="1">
+        <v>5.0917498397231951</v>
+      </c>
+      <c r="U8" s="2">
+        <v>2.0301079282503438</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1">
+        <v>282.33333332200004</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8.0666666663428579</v>
+      </c>
+      <c r="E9" s="1">
+        <v>201.69803922524702</v>
+      </c>
+      <c r="J9">
+        <v>140.33333329999999</v>
+      </c>
+      <c r="K9">
+        <v>4977.3333329999996</v>
+      </c>
+      <c r="L9">
+        <v>5675.6666670000004</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="R9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="1">
+        <v>5.0841559556727933</v>
+      </c>
+      <c r="U9" s="2">
+        <v>2.0301079282503438</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <v>337.00000000500012</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9.6285714287142898</v>
+      </c>
+      <c r="E10" s="1">
+        <v>183.97889821819689</v>
+      </c>
+      <c r="J10">
+        <v>211.66666670000001</v>
+      </c>
+      <c r="K10">
+        <v>88541</v>
+      </c>
+      <c r="L10">
+        <v>55845</v>
+      </c>
+      <c r="M10">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="N10">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="O10">
+        <v>2.3333333330000001</v>
+      </c>
+      <c r="P10">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="R10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="1">
+        <v>5.0092939976225077</v>
+      </c>
+      <c r="U10" s="2">
+        <v>2.0301079282503438</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2">
+        <v>340.33333335899999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9.7238095245428564</v>
+      </c>
+      <c r="E11" s="2">
+        <v>580.04239053713434</v>
+      </c>
+      <c r="J11">
+        <v>81.333333330000002</v>
+      </c>
+      <c r="K11">
+        <v>25277.666669999999</v>
+      </c>
+      <c r="L11">
+        <v>3078.666667</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>5.6666666670000003</v>
+      </c>
+      <c r="O11">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="P11">
+        <v>9.6666666669999994</v>
+      </c>
+      <c r="R11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S11" s="1">
+        <v>4.9352429418426631</v>
+      </c>
+      <c r="U11" s="2">
+        <v>2.026192463029111</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>55</v>
+      </c>
+      <c r="K12">
+        <v>31101.666669999999</v>
+      </c>
+      <c r="L12">
+        <v>22753</v>
+      </c>
+      <c r="M12">
+        <v>2.6666666669999999</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="R12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.8344507092256932</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1.9960083540252964</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>201.33333329999999</v>
+      </c>
+      <c r="K13">
+        <v>7770.6666670000004</v>
+      </c>
+      <c r="L13">
+        <v>5223.6666670000004</v>
+      </c>
+      <c r="M13">
+        <v>2.3333333330000001</v>
+      </c>
+      <c r="N13">
+        <v>2.3333333330000001</v>
+      </c>
+      <c r="O13">
+        <v>4.6666666670000003</v>
+      </c>
+      <c r="P13">
+        <v>3.3333333330000001</v>
+      </c>
+      <c r="R13" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" s="1">
+        <v>5.5672787503396206</v>
+      </c>
+      <c r="U13" s="2">
+        <v>2.0322445093177191</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14">
+        <v>149</v>
+      </c>
+      <c r="K14">
+        <v>23345</v>
+      </c>
+      <c r="L14">
+        <v>18958.666669999999</v>
+      </c>
+      <c r="M14">
+        <v>6.6666666670000003</v>
+      </c>
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <v>6.6666666670000003</v>
+      </c>
+      <c r="P14">
+        <v>2.6666666669999999</v>
+      </c>
+      <c r="R14" t="s">
+        <v>92</v>
+      </c>
+      <c r="S14" s="1">
+        <v>5.5672731108287046</v>
+      </c>
+      <c r="U14" s="2">
+        <v>2.0322445093177191</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15">
+        <v>90.333333330000002</v>
+      </c>
+      <c r="K15">
+        <v>23299.666669999999</v>
+      </c>
+      <c r="L15">
+        <v>33242</v>
+      </c>
+      <c r="M15">
+        <v>68.666666669999998</v>
+      </c>
+      <c r="N15">
+        <v>82.666666669999998</v>
+      </c>
+      <c r="O15">
+        <v>38</v>
+      </c>
+      <c r="P15">
+        <v>139.66666670000001</v>
+      </c>
+      <c r="R15" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="1">
+        <v>5.5668299887988697</v>
+      </c>
+      <c r="U15" s="2">
+        <v>2.0322445093177191</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15794311035.557575</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2632385172.5929294</v>
+      </c>
+      <c r="E16" s="1">
+        <v>23.393070669995264</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.132477870994279E-21</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.1368002845844059</v>
+      </c>
+      <c r="J16">
+        <v>182</v>
+      </c>
+      <c r="K16">
+        <v>57851.333330000001</v>
+      </c>
+      <c r="L16">
+        <v>49017.666669999999</v>
+      </c>
+      <c r="M16">
+        <v>5.6666666670000003</v>
+      </c>
+      <c r="N16">
+        <v>8.3333333330000006</v>
+      </c>
+      <c r="O16">
+        <v>12</v>
+      </c>
+      <c r="P16">
+        <v>17</v>
+      </c>
+      <c r="R16" t="s">
+        <v>66</v>
+      </c>
+      <c r="S16" s="1">
+        <v>5.5668004257575774</v>
+      </c>
+      <c r="U16" s="2">
+        <v>2.0322445093177191</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1">
+        <v>26781762852.565434</v>
+      </c>
+      <c r="C17" s="1">
+        <v>238</v>
+      </c>
+      <c r="D17" s="1">
+        <v>112528415.34691359</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="J17">
+        <v>284</v>
+      </c>
+      <c r="K17">
+        <v>41508</v>
+      </c>
+      <c r="L17">
+        <v>67502.666670000006</v>
+      </c>
+      <c r="M17">
+        <v>29.333333329999999</v>
+      </c>
+      <c r="N17">
+        <v>13.33333333</v>
+      </c>
+      <c r="O17">
+        <v>14.66666667</v>
+      </c>
+      <c r="P17">
+        <v>11.33333333</v>
+      </c>
+      <c r="R17" t="s">
+        <v>67</v>
+      </c>
+      <c r="S17" s="1">
+        <v>4.9305031712317398</v>
+      </c>
+      <c r="U17" s="2">
+        <v>2.0322445093177191</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="J18">
+        <v>8.3333333330000006</v>
+      </c>
+      <c r="K18">
+        <v>192.33333329999999</v>
+      </c>
+      <c r="L18">
+        <v>90</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>10.66666667</v>
+      </c>
+      <c r="O18">
+        <v>6.3333333329999997</v>
+      </c>
+      <c r="P18">
+        <v>3.6666666669999999</v>
+      </c>
+      <c r="R18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S18" s="1">
+        <v>4.9304969187349075</v>
+      </c>
+      <c r="U18" s="2">
+        <v>2.0322445093177191</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42576073888.123009</v>
+      </c>
+      <c r="C19" s="2">
+        <v>244</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="J19">
+        <v>11.66666667</v>
+      </c>
+      <c r="K19">
+        <v>71</v>
+      </c>
+      <c r="L19">
+        <v>155.33333329999999</v>
+      </c>
+      <c r="M19">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="N19">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="O19">
+        <v>3.3333333330000001</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>69</v>
+      </c>
+      <c r="S19" s="1">
+        <v>4.9300052740492646</v>
+      </c>
+      <c r="U19" s="2">
+        <v>2.0322445093177191</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J20">
+        <v>10.33333333</v>
+      </c>
+      <c r="K20">
+        <v>606</v>
+      </c>
+      <c r="L20">
+        <v>561.33333330000005</v>
+      </c>
+      <c r="M20">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="N20">
+        <v>2.3333333330000001</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="R20" t="s">
+        <v>70</v>
+      </c>
+      <c r="S20" s="1">
+        <v>4.9299725229912328</v>
+      </c>
+      <c r="U20" s="2">
+        <v>2.0322445093177191</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J21">
+        <v>304.66666670000001</v>
+      </c>
+      <c r="K21">
+        <v>45202.333330000001</v>
+      </c>
+      <c r="L21">
+        <v>32485.333330000001</v>
+      </c>
+      <c r="M21">
+        <v>21.666666670000001</v>
+      </c>
+      <c r="N21">
+        <v>7.3333333329999997</v>
+      </c>
+      <c r="O21">
+        <v>22</v>
+      </c>
+      <c r="P21">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="R21" t="s">
+        <v>71</v>
+      </c>
+      <c r="S21" s="1">
+        <v>-5.8835908267541323E-3</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1.9960083540252964</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J22">
+        <v>581</v>
+      </c>
+      <c r="K22">
+        <v>52999</v>
+      </c>
+      <c r="L22">
+        <v>63992.666669999999</v>
+      </c>
+      <c r="M22">
+        <v>23.666666670000001</v>
+      </c>
+      <c r="N22">
+        <v>27.333333329999999</v>
+      </c>
+      <c r="O22">
+        <v>71.333333330000002</v>
+      </c>
+      <c r="P22">
+        <v>31</v>
+      </c>
+      <c r="R22" t="s">
+        <v>72</v>
+      </c>
+      <c r="S22" s="1">
+        <v>-0.50057749873037449</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1.9954689314298424</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J23">
+        <v>244.33333329999999</v>
+      </c>
+      <c r="K23">
+        <v>18954.666669999999</v>
+      </c>
+      <c r="L23">
+        <v>12104</v>
+      </c>
+      <c r="M23">
+        <v>3.3333333330000001</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>73</v>
+      </c>
+      <c r="S23" s="1">
+        <v>-0.36326916168681433</v>
+      </c>
+      <c r="U23" s="2">
+        <v>2.0066468050616861</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J24">
+        <v>79</v>
+      </c>
+      <c r="K24">
+        <v>5923.3333329999996</v>
+      </c>
+      <c r="L24">
+        <v>3887.666667</v>
+      </c>
+      <c r="M24">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>3.3333333330000001</v>
+      </c>
+      <c r="P24">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="R24" t="s">
+        <v>74</v>
+      </c>
+      <c r="S24" s="1">
+        <v>-0.47051853522683529</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1.9954689314298424</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <v>93.666666669999998</v>
+      </c>
+      <c r="K25">
+        <v>31020.333330000001</v>
+      </c>
+      <c r="L25">
+        <v>24908.666669999999</v>
+      </c>
+      <c r="M25">
+        <v>11.66666667</v>
+      </c>
+      <c r="N25">
+        <v>12.33333333</v>
+      </c>
+      <c r="O25">
+        <v>6.6666666670000003</v>
+      </c>
+      <c r="P25">
+        <v>7.3333333329999997</v>
+      </c>
+      <c r="R25" t="s">
+        <v>75</v>
+      </c>
+      <c r="S25" s="1">
+        <v>-0.35064099098519363</v>
+      </c>
+      <c r="U25" s="2">
+        <v>2.0040447832891455</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J26">
+        <v>177</v>
+      </c>
+      <c r="K26">
+        <v>7990</v>
+      </c>
+      <c r="L26">
+        <v>7407.3333329999996</v>
+      </c>
+      <c r="M26">
+        <v>4.6666666670000003</v>
+      </c>
+      <c r="N26">
+        <v>4.3333333329999997</v>
+      </c>
+      <c r="O26">
+        <v>9</v>
+      </c>
+      <c r="P26">
+        <v>4.3333333329999997</v>
+      </c>
+      <c r="R26" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" s="1">
+        <v>-2.0384121337199683E-2</v>
+      </c>
+      <c r="U26" s="2">
+        <v>2.0048792881880577</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>26.666666670000001</v>
+      </c>
+      <c r="K27">
+        <v>10945.666670000001</v>
+      </c>
+      <c r="L27">
+        <v>9676</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>11.33333333</v>
+      </c>
+      <c r="O27">
+        <v>12.33333333</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>127</v>
+      </c>
+      <c r="K29">
+        <v>9805.3333330000005</v>
+      </c>
+      <c r="L29">
+        <v>6763</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>11.33333333</v>
+      </c>
+      <c r="P29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>31</v>
+      </c>
+      <c r="K31">
+        <v>2555.333333</v>
+      </c>
+      <c r="L31">
+        <v>2246</v>
+      </c>
+      <c r="M31">
+        <v>2.6666666669999999</v>
+      </c>
+      <c r="N31">
+        <v>2.3333333330000001</v>
+      </c>
+      <c r="O31">
+        <v>2.6666666669999999</v>
+      </c>
+      <c r="P31">
+        <v>1.3333333329999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>140</v>
+      </c>
+      <c r="K32">
+        <v>16614.333330000001</v>
+      </c>
+      <c r="L32">
+        <v>11901.333329999999</v>
+      </c>
+      <c r="M32">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>3.6666666669999999</v>
+      </c>
+      <c r="P32">
+        <v>2.3333333330000001</v>
+      </c>
+    </row>
+    <row r="33" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>1.6666666670000001</v>
+      </c>
+      <c r="K33">
+        <v>58.333333330000002</v>
+      </c>
+      <c r="L33">
+        <v>42.666666669999998</v>
+      </c>
+      <c r="M33">
+        <v>4.6666666670000003</v>
+      </c>
+      <c r="N33">
+        <v>3.3333333330000001</v>
+      </c>
+      <c r="O33">
+        <v>2.6666666669999999</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>42</v>
+      </c>
+      <c r="K34">
+        <v>7881</v>
+      </c>
+      <c r="L34">
+        <v>7058.3333329999996</v>
+      </c>
+      <c r="M34">
+        <v>8.3333333330000006</v>
+      </c>
+      <c r="N34">
+        <v>9</v>
+      </c>
+      <c r="O34">
+        <v>13</v>
+      </c>
+      <c r="P34">
+        <v>10.33333333</v>
+      </c>
+    </row>
+    <row r="35" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>86</v>
+      </c>
+      <c r="K35">
+        <v>3325.666667</v>
+      </c>
+      <c r="L35">
+        <v>3006</v>
+      </c>
+      <c r="M35">
+        <v>6.3333333329999997</v>
+      </c>
+      <c r="N35">
+        <v>10.33333333</v>
+      </c>
+      <c r="O35">
+        <v>9.6666666669999994</v>
+      </c>
+      <c r="P35">
+        <v>9.6666666669999994</v>
+      </c>
+    </row>
+    <row r="36" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>152.66666670000001</v>
+      </c>
+      <c r="K36">
+        <v>8360.3333330000005</v>
+      </c>
+      <c r="L36">
+        <v>5821.3333329999996</v>
+      </c>
+      <c r="M36">
+        <v>5.6666666670000003</v>
+      </c>
+      <c r="N36">
+        <v>5.6666666670000003</v>
+      </c>
+      <c r="O36">
+        <v>10.66666667</v>
+      </c>
+      <c r="P36">
+        <v>3.6666666669999999</v>
+      </c>
+    </row>
+    <row r="37" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>11</v>
+      </c>
+      <c r="K37">
+        <v>10654.666670000001</v>
+      </c>
+      <c r="L37">
+        <v>7420</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+      <c r="O37">
+        <v>10.66666667</v>
+      </c>
+      <c r="P37">
+        <v>5.6666666670000003</v>
+      </c>
+    </row>
+    <row r="42" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="L42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="10:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+      <c r="M44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="L45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M45" s="1">
+        <v>9.6285714287142898</v>
+      </c>
+      <c r="N45" s="1">
+        <v>9.7238095245428564</v>
+      </c>
+    </row>
+    <row r="46" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="L46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46" s="1">
+        <v>183.97889821819689</v>
+      </c>
+      <c r="N46" s="1">
+        <v>580.04239053713434</v>
+      </c>
+    </row>
+    <row r="47" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="L47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M47" s="1">
+        <v>35</v>
+      </c>
+      <c r="N47" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="L48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M49" s="1">
+        <v>54</v>
+      </c>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M50" s="1">
+        <v>-2.0384121337199683E-2</v>
+      </c>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.49190604245456432</v>
+      </c>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1.6735649063521589</v>
+      </c>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0.98381208490912864</v>
+      </c>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="12:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M54" s="2">
+        <v>2.0048792881880577</v>
+      </c>
+      <c r="N54" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A383E4C-4F0B-46BE-99B4-BD40993E99AA}">
-  <dimension ref="C1:I36"/>
+  <dimension ref="B1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO19" sqref="AO19"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6718,7 +8631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>42</v>
       </c>
@@ -6741,7 +8654,7 @@
         <v>10.33333333</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>86</v>
       </c>
@@ -6764,7 +8677,7 @@
         <v>9.6666666669999994</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>152.66666670000001</v>
       </c>
@@ -6787,7 +8700,7 @@
         <v>3.6666666669999999</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>11</v>
       </c>
@@ -6809,6 +8722,249 @@
       <c r="I36">
         <v>5.6666666670000003</v>
       </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="1">
+        <v>35</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3844.3333333669993</v>
+      </c>
+      <c r="E45" s="1">
+        <v>109.83809523905713</v>
+      </c>
+      <c r="F45" s="1">
+        <v>13822.629878792928</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="1">
+        <v>35</v>
+      </c>
+      <c r="D46" s="1">
+        <v>686924.66667862982</v>
+      </c>
+      <c r="E46" s="1">
+        <v>19626.419047960851</v>
+      </c>
+      <c r="F46" s="1">
+        <v>434618142.34682196</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="1">
+        <v>35</v>
+      </c>
+      <c r="D47" s="1">
+        <v>548373.33334427001</v>
+      </c>
+      <c r="E47" s="1">
+        <v>15667.809524122</v>
+      </c>
+      <c r="F47" s="1">
+        <v>353065811.60071403</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="1">
+        <v>35</v>
+      </c>
+      <c r="D48" s="1">
+        <v>281.66666667999993</v>
+      </c>
+      <c r="E48" s="1">
+        <v>8.0476190479999978</v>
+      </c>
+      <c r="F48" s="1">
+        <v>165.13165267411193</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="1">
+        <v>35</v>
+      </c>
+      <c r="D49" s="1">
+        <v>282.33333332200004</v>
+      </c>
+      <c r="E49" s="1">
+        <v>8.0666666663428579</v>
+      </c>
+      <c r="F49" s="1">
+        <v>201.69803922524702</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="1">
+        <v>35</v>
+      </c>
+      <c r="D50" s="1">
+        <v>337.00000000500012</v>
+      </c>
+      <c r="E50" s="1">
+        <v>9.6285714287142898</v>
+      </c>
+      <c r="F50" s="1">
+        <v>183.97889821819689</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="2">
+        <v>35</v>
+      </c>
+      <c r="D51" s="2">
+        <v>340.33333335899999</v>
+      </c>
+      <c r="E51" s="2">
+        <v>9.7238095245428564</v>
+      </c>
+      <c r="F51" s="2">
+        <v>580.04239053713434</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="1">
+        <v>15794311035.557575</v>
+      </c>
+      <c r="D56" s="1">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2632385172.5929294</v>
+      </c>
+      <c r="F56" s="1">
+        <v>23.393070669995264</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1.132477870994279E-21</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2.1368002845844059</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="1">
+        <v>26781762852.565434</v>
+      </c>
+      <c r="D57" s="1">
+        <v>238</v>
+      </c>
+      <c r="E57" s="1">
+        <v>112528415.34691359</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="2">
+        <v>42576073888.123009</v>
+      </c>
+      <c r="D59" s="2">
+        <v>244</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
